--- a/Check.xlsx
+++ b/Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrosovathur/Desktop/QA_Diploma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrosovathur/Desktop/QAMID_Diploma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32E541-484E-8948-BD62-84C8329A598F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A021CDD-7450-AF46-BB33-E28ABEDFD019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="22160" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -299,13 +299,67 @@
   </si>
   <si>
     <t>Выбор категории  из списка с автозаполнением заголовка при создании новости</t>
+  </si>
+  <si>
+    <t>BB1</t>
+  </si>
+  <si>
+    <t>Нефункциональные проверки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование производительности </t>
+  </si>
+  <si>
+    <t>BB2</t>
+  </si>
+  <si>
+    <t>BB3</t>
+  </si>
+  <si>
+    <t>BB4</t>
+  </si>
+  <si>
+    <t>BB5</t>
+  </si>
+  <si>
+    <t>BB6</t>
+  </si>
+  <si>
+    <t>СС1</t>
+  </si>
+  <si>
+    <t>СС2</t>
+  </si>
+  <si>
+    <t>Cканирование приложения на уязвимости с помощью специализированных инструментов.</t>
+  </si>
+  <si>
+    <t>Cимуляция отказов в работе сервера или базы данных для проверки поведения системы в критических ситуациях.</t>
+  </si>
+  <si>
+    <t>Проверка корректности восстановления данных после сбоя или отказа системы.</t>
+  </si>
+  <si>
+    <t>Проверка корректности обновления системы на новую версию без потери данных и функциональности.</t>
+  </si>
+  <si>
+    <t>Проверка корректности отображения интерфейса и контента на разных языках и региональных настройках.</t>
+  </si>
+  <si>
+    <t>Мониторинг доступности приложения с помощью специальных инструментов.</t>
+  </si>
+  <si>
+    <t>Анализ времени отклика приложения при одновременном доступе нескольких пользователей.</t>
+  </si>
+  <si>
+    <t>Оценка стабильности работы приложения при высоких нагрузках.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,14 +418,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -383,6 +429,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -417,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -479,11 +540,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,12 +588,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,19 +607,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,6 +634,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,30 +883,30 @@
   <dimension ref="A1:H964"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="3" max="3" width="87.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="5"/>
@@ -820,16 +914,16 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6"/>
@@ -838,14 +932,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
@@ -854,14 +948,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
@@ -870,14 +964,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
@@ -886,14 +980,14 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
@@ -902,14 +996,14 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
@@ -917,16 +1011,16 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="6"/>
@@ -934,16 +1028,16 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="6"/>
@@ -951,14 +1045,14 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="6"/>
@@ -966,14 +1060,14 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="6"/>
@@ -981,16 +1075,16 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="6"/>
@@ -998,14 +1092,14 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="6"/>
@@ -1013,14 +1107,14 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="6"/>
@@ -1028,14 +1122,14 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="6"/>
@@ -1043,16 +1137,16 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6"/>
@@ -1060,14 +1154,14 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="6"/>
@@ -1075,14 +1169,14 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="6"/>
@@ -1090,16 +1184,16 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="6"/>
@@ -1107,14 +1201,14 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="6"/>
@@ -1122,16 +1216,16 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="6"/>
@@ -1139,14 +1233,14 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="6"/>
@@ -1154,16 +1248,16 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="6"/>
@@ -1171,16 +1265,16 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="6"/>
@@ -1188,16 +1282,16 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="6"/>
@@ -1205,14 +1299,14 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="6"/>
@@ -1220,14 +1314,14 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="6"/>
@@ -1235,14 +1329,14 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="6"/>
@@ -1250,16 +1344,16 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="6"/>
@@ -1267,16 +1361,16 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="6"/>
@@ -1284,14 +1378,14 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="6"/>
@@ -1299,16 +1393,16 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="6"/>
@@ -1316,14 +1410,14 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="6"/>
@@ -1331,16 +1425,16 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="6"/>
@@ -1348,14 +1442,14 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="6"/>
@@ -1363,14 +1457,14 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="6"/>
@@ -1378,16 +1472,16 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="6"/>
@@ -1395,55 +1489,119 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="1"/>
+    <row r="39" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
@@ -4200,20 +4358,22 @@
       <c r="B964" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
+  <mergeCells count="13">
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E2:E15 G2:G15">
     <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
       <formula>"Passed"</formula>
@@ -4223,15 +4383,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D38" xr:uid="{11A53942-531C-744B-8306-914430C1FA4A}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E2:E38 G2:G38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Passed,Failed,No Result"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="F2:F38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"In process,Done,Need to update"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D46" xr:uid="{11A53942-531C-744B-8306-914430C1FA4A}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
